--- a/docs/M162/SideQuest 8B/162-8B-MatteoBosshard.xlsx
+++ b/docs/M162/SideQuest 8B/162-8B-MatteoBosshard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\schule\wiss-docs\docs\M162\SideQuest 8B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\wiss-docs\docs\M162\SideQuest 8B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C8956-4C0D-4E82-98BA-4E465814B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6373CA8-2423-4292-A1F7-2B06B8FDE567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>category_id</t>
   </si>
@@ -62,9 +62,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>Smartphone Alpha</t>
-  </si>
-  <si>
     <t>Laptop Pro</t>
   </si>
   <si>
@@ -408,6 +405,18 @@
   </si>
   <si>
     <t>7c726cc41793a817d42cd919bd3f1b2ddd06d55ab8099278c5342417772e43a0</t>
+  </si>
+  <si>
+    <t>Smartphone Plus</t>
+  </si>
+  <si>
+    <t>Rechnung</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Klarna</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -521,9 +530,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -834,13 +843,13 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -848,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -856,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -864,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -872,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -889,20 +898,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="205" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -919,12 +928,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -936,12 +945,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -953,12 +962,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -970,12 +979,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -987,12 +996,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1004,12 +1013,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1021,12 +1030,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1038,12 +1047,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1055,12 +1064,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1072,12 +1081,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1102,200 +1111,200 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1311,77 +1320,77 @@
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1389,19 +1398,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1409,19 +1418,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1429,19 +1438,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1449,19 +1458,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1469,19 +1478,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1489,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1509,19 +1518,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1529,16 +1538,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1554,43 +1563,43 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1598,13 +1607,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1612,13 +1621,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1626,13 +1635,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1640,13 +1649,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1654,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1668,13 +1677,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1682,13 +1691,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1696,13 +1705,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1710,13 +1719,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1724,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1738,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1752,13 +1761,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1766,13 +1775,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1780,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1794,13 +1803,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1808,13 +1817,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1822,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1836,13 +1845,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1850,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1864,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1878,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1892,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1906,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1920,13 +1929,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1934,13 +1943,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1948,13 +1957,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1981,25 +1990,25 @@
       <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2043,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2087,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -2131,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>11</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>11</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>12</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>12</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>13</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>13</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>14</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>14</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>14</v>
       </c>
@@ -2351,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>15</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>17</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>18</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>19</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>19</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>19</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>20</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>20</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>20</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>21</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>21</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>22</v>
       </c>
@@ -2527,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>22</v>
       </c>
@@ -2538,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>22</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>23</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -2604,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>25</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>26</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>26</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>26</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>27</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>27</v>
       </c>
@@ -2681,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>28</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>28</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>28</v>
       </c>
@@ -2721,40 +2730,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="257" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>114</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2766,37 +2799,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2810,10 +2843,10 @@
         <v>140</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2827,10 +2860,10 @@
         <v>946</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2844,10 +2877,10 @@
         <v>1388</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2861,10 +2894,10 @@
         <v>429</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2878,10 +2911,10 @@
         <v>694</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2895,10 +2928,10 @@
         <v>229</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2912,10 +2945,10 @@
         <v>717.5</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2929,10 +2962,10 @@
         <v>223</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2946,10 +2979,10 @@
         <v>159.80000000000001</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2963,10 +2996,10 @@
         <v>1364.9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2980,10 +3013,10 @@
         <v>120</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2997,10 +3030,10 @@
         <v>369</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3014,10 +3047,10 @@
         <v>808.9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3031,10 +3064,10 @@
         <v>854</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3048,10 +3081,10 @@
         <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3065,10 +3098,10 @@
         <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3082,10 +3115,10 @@
         <v>74.900000000000006</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3099,10 +3132,10 @@
         <v>302.8</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3116,10 +3149,10 @@
         <v>3792</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3133,10 +3166,10 @@
         <v>1533</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3150,10 +3183,10 @@
         <v>717.5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3167,10 +3200,10 @@
         <v>333.9</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3184,10 +3217,10 @@
         <v>130</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3201,10 +3234,10 @@
         <v>90</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3218,10 +3251,10 @@
         <v>364</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3235,10 +3268,10 @@
         <v>838.8</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3252,10 +3285,10 @@
         <v>329</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3269,7 +3302,7 @@
         <v>712.8</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
